--- a/data/trans_dic/P18_1_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P18_1_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se ha sentido deprimida en algún momento o más en la última semana</t>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>44,93%</t>
+          <t>50,14%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,71%</t>
+          <t>69,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,27%</t>
+          <t>63,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>62,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>57,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>59,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>51,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>37,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>59,6%</t>
+          <t>41,34%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53,18%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>44,06%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>48,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>49,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>43,14%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>53,86%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>50,46%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>48,85%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>49,71%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,74; 52,96</t>
+          <t>38,1; 61,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,29; 42,97</t>
+          <t>59,81; 78,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,26; 42,71</t>
+          <t>56,24; 71,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 44,15</t>
+          <t>55,67; 69,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>34,93; 47,17</t>
+          <t>37,39; 68,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>54,69; 64,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,25; 57,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>54,29; 64,59</t>
+          <t>28,63; 46,4</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,03; 64,96</t>
+          <t>33,41; 48,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>51,19; 63,24</t>
+          <t>33,5; 46,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,49; 57,62</t>
+          <t>32,85; 43,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>37,45; 48,4</t>
+          <t>36,39; 53,91</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>44,51; 52,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>44,32; 54,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>45,71; 54,59</t>
+          <t>35,29; 50,57</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>47,58; 60,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>46,02; 55,44</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 53,4</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>41,22; 56,74</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>64,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>23,24%</t>
+          <t>76,81%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,12%</t>
+          <t>65,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>32,97%</t>
+          <t>67,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,82%</t>
+          <t>65,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>61,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>37,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>50,03%</t>
+          <t>54,63%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>55,55%</t>
+          <t>50,59%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>49,35%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>53,33%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>45,25%</t>
+          <t>49,92%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>65,35%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57,95%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>58,53%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>59,48%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,77; 39,87</t>
+          <t>56,9; 69,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,68; 27,26</t>
+          <t>71,33; 81,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,33; 36,6</t>
+          <t>60,42; 70,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>28,59; 38,16</t>
+          <t>62,03; 71,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,31; 41,15</t>
+          <t>57,42; 71,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,49; 64,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,93; 46,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>44,3; 51,77</t>
+          <t>31,56; 42,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,1; 53,84</t>
+          <t>49,28; 60,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,83; 59,7</t>
+          <t>46,26; 54,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>45,97; 51,47</t>
+          <t>45,15; 53,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 35,5</t>
+          <t>47,73; 58,65</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>36,83; 42,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>38,06; 44,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>41,87; 48,66</t>
+          <t>45,84; 54,58</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>61,55; 69,31</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>54,51; 61,32</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>55,68; 61,94</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 63,46</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>68,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,28%</t>
+          <t>80,08%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>70,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,5%</t>
+          <t>71,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>39,08%</t>
+          <t>72,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,61%</t>
+          <t>33,33%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>42,92%</t>
+          <t>59,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>48,53%</t>
+          <t>55,91%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>56,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>62,01%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>49,68%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>69,43%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>62,64%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>63,9%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>66,97%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>32,1; 41,79</t>
+          <t>61,1; 74,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,05; 31,83</t>
+          <t>73,23; 85,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,83; 34,14</t>
+          <t>64,97; 75,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,18; 33,24</t>
+          <t>65,98; 75,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,98; 46,98</t>
+          <t>67,04; 77,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>60,03; 68,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,97; 43,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,04; 47,83</t>
+          <t>28,04; 39,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>38,79; 46,79</t>
+          <t>53,21; 64,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>41,77; 54,86</t>
+          <t>50,69; 60,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>46,79; 53,84</t>
+          <t>52,33; 60,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>28,37; 35,35</t>
+          <t>56,97; 67,16</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>33,09; 39,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>32,79; 39,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>39,52; 48,72</t>
+          <t>44,71; 54,03</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>65,35; 73,4</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>59,06; 66,06</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>60,71; 67,3</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>63,28; 71,11</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>37,77%</t>
+          <t>61,6%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>71,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>31,86%</t>
+          <t>71,3%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>38,47%</t>
+          <t>67,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>40,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>50,24%</t>
+          <t>60,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>54,61%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>50,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>34,58%</t>
+          <t>51,81%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>41,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>41,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>46,54%</t>
+          <t>50,9%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>66,04%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>62,02%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>59,9%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,86; 40,8</t>
+          <t>58,0; 65,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,38; 28,92</t>
+          <t>65,53; 75,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,04; 34,87</t>
+          <t>65,09; 76,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,38; 35,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,41; 41,96</t>
+          <t>61,12; 72,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,43; 64,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>40,32; 45,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,2; 52,31</t>
+          <t>36,85; 43,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>47,37; 52,73</t>
+          <t>56,22; 64,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,24; 57,71</t>
+          <t>45,73; 56,78</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>48,28; 52,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,51; 36,83</t>
+          <t>46,23; 57,49</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>39,0; 42,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,37; 43,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>43,99; 48,96</t>
+          <t>48,35; 53,39</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>62,59; 69,18</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>57,72; 66,05</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>55,47; 63,53</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>62,27%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>74,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>67,81%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67,56%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,71%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,24%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>56,45%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50,23%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>48,81%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>53,44%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>50,0%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>65,26%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>58,85%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>58,03%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>59,93%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59,53; 65,28</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71,11; 77,29</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>64,76; 70,59</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>63,96; 70,34</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62,14; 70,29</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>36,01; 41,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>53,68; 59,31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>47,6; 52,7</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>46,31; 51,36</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>50,27; 56,43</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>48,09; 52,16</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>63,18; 67,37</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>57,08; 60,76</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>56,01; 59,96</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>57,66; 62,29</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha sentido deprimida en algún momento o más en la última semana (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>113575</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>234919</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>333969</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>454786</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>258429</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>96099</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>172443</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>250078</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>333247</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>281368</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>209674</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>407362</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>584047</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>788033</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>539797</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>86284; 139075</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>202888; 265613</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>294572; 372839</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>402985; 502753</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>167274; 308394</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>74315; 120451</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>139386; 203510</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>212284; 292841</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>292138; 384457</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>232334; 344211</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>171543; 245832</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>359891; 460673</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>532649; 641687</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>717150; 861434</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>447603; 616163</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>288.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>343.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>597.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>742.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>415076</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>716286</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>790079</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1086590</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>703454</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>265053</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>544220</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>622885</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>743204</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>577844</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>680129</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1260506</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1412963</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1829794</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1281298</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>368373; 452711</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>665243; 759915</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>729183; 853249</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1005118; 1157535</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>614734; 761887</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>225672; 302659</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>490906; 598166</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>569663; 673507</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>679960; 803269</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>517159; 635440</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>624657; 743627</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1187134; 1336779</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1329000; 1495198</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>1740828; 1936402</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>1179394; 1366924</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>203.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>342.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>335.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>236.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>677.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>313299</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>573074</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>593117</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>781075</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>596375</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>177233</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>456391</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>526543</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>659806</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>556287</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>490533</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1029465</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1119660</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1440881</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1152662</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>278403; 339955</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>524006; 609498</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>549451; 634765</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>721409; 826221</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>552451; 641921</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>149095; 210043</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>408222; 496976</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>477352; 568988</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>607839; 708177</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>511113; 602509</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>441432; 533445</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>968979; 1088308</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1055591; 1180743</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1369132; 1517684</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1089199; 1223906</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>497.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>345.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>365.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>862.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>399.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1302516</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1033051</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>611665</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>737075</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>835613</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>850197</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>393759</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>505899</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2138130</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1883248</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1005424</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1242974</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1226307; 1380692</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>948905; 1097048</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>558397; 656166</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>671458; 797710</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>768864; 909897</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>789036; 909715</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>348988; 433334</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>451401; 561329</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2031162; 2243033</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1784765; 1972780</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>935617; 1070671</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1151002; 1318373</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>867.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>921.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>921.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>708.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>765.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>832.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>696.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1459.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1632.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1753.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1740.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>1404.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>2144466</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2557331</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2328830</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2322451</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2295333</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1373999</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2023251</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1793264</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1736257</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1921399</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>3518466</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>4580581</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>4122094</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>4058708</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>4216731</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2050356; 2248323</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2442986; 2655147</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2224055; 2424319</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2198553; 2418076</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>2137888; 2418228</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1293733; 1473132</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1924066; 2125846</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1699361; 1881422</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1647359; 1826896</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1807638; 2029032</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>3384364; 3670462</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>4434642; 4728785</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>3997743; 4255495</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>3917652; 4194026</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>4056777; 4382667</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
